--- a/DHS7tabplan/Tab_plan_Chap08_Infant_and_Child_Mortality_VII_5Sept2018.xlsx
+++ b/DHS7tabplan/Tab_plan_Chap08_Infant_and_Child_Mortality_VII_5Sept2018.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLowell\joanna.lowell\Documents\DHS7 tab plan\Final report\Pending\English\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33697\ICF\Analysis - Shared Resources\Code\DHS-Indicators-Stata\DHS7tabplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="9072" windowHeight="7500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="9072" windowHeight="7500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="12" r:id="rId1"/>
@@ -1222,6 +1222,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1311,7 +1312,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1621,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1631,7 +1631,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="59" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1710,82 +1710,82 @@
     </row>
     <row r="3" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="70" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -1831,23 +1831,23 @@
     </row>
     <row r="14" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7" s="47" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1894,11 +1894,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -1909,92 +1909,92 @@
       <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
     </row>
     <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="77" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="74"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="74"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="75"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="23" t="s">
@@ -2096,14 +2096,14 @@
       <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
     </row>
     <row r="23" spans="1:9" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
@@ -2153,11 +2153,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -2168,92 +2168,92 @@
       <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
     </row>
     <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="77" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="74"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="74"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="75"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="23" t="s">
@@ -2703,44 +2703,44 @@
       <c r="G53" s="34"/>
     </row>
     <row r="54" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
     </row>
     <row r="55" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
     </row>
     <row r="56" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
     </row>
     <row r="57" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2792,11 +2792,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -2807,81 +2807,81 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="70" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
     </row>
     <row r="11" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="86" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="31"/>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
-      <c r="B18" s="85"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
@@ -3253,75 +3253,75 @@
     </row>
     <row r="49" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
     </row>
     <row r="50" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
     </row>
     <row r="51" spans="1:6" ht="11.4" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="24"/>
-      <c r="B52" s="87" t="s">
+      <c r="B52" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
     </row>
     <row r="53" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
-      <c r="B54" s="70" t="s">
+      <c r="B54" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
     </row>
     <row r="56" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3353,8 +3353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:E47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3368,11 +3368,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
@@ -3382,82 +3382,82 @@
     </row>
     <row r="3" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
     </row>
     <row r="4" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
     </row>
     <row r="5" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
     </row>
     <row r="7" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
     </row>
     <row r="8" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="89" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="88"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="89"/>
     </row>
     <row r="10" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="89" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="88"/>
+      <c r="E10" s="89"/>
     </row>
     <row r="11" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="89"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="89"/>
+      <c r="E11" s="90"/>
     </row>
     <row r="12" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
@@ -3766,83 +3766,83 @@
     </row>
     <row r="45" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
     </row>
     <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
     </row>
     <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
     </row>
     <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
     </row>
     <row r="49" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
     </row>
     <row r="50" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
     </row>
     <row r="51" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
     </row>
     <row r="52" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
     </row>
     <row r="53" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
-      <c r="B53" s="70" t="s">
+      <c r="B53" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
     </row>
     <row r="54" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
-      <c r="B54" s="70" t="s">
+      <c r="B54" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
     </row>
     <row r="55" spans="1:5" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
@@ -3876,8 +3876,58 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="476" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="95dfcc87ed256f4aed73fd9ca228c514">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88209df52733b038c0f2ab805b0d468e" ns1:_="" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="476" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c59892ab5c8720a9bb86c88d309574b7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="112c39e52fac477e80d68a32927625ca" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
@@ -4118,66 +4168,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-6932</_dlc_DocId>
@@ -4192,18 +4183,43 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EBF7409-DEC3-4179-ADDD-6244E0C18487}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7E30519-3200-480D-8DCD-540F847A69D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7E30519-3200-480D-8DCD-540F847A69D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62B6F154-AA6F-48CC-85A4-FA5C859C4DE9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A776690-6507-43D4-B6EE-9EAA371CABF2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB48083D-3DC4-49A6-A8DA-B5823909C709}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB48083D-3DC4-49A6-A8DA-B5823909C709}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A776690-6507-43D4-B6EE-9EAA371CABF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DHS7tabplan/Tab_plan_Chap08_Infant_and_Child_Mortality_VII_5Sept2018.xlsx
+++ b/DHS7tabplan/Tab_plan_Chap08_Infant_and_Child_Mortality_VII_5Sept2018.xlsx
@@ -3926,8 +3926,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="476" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c59892ab5c8720a9bb86c88d309574b7">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="112c39e52fac477e80d68a32927625ca" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="481" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be21cae339529f0f311ef097f4a87693">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
@@ -3951,6 +3951,10 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:Survey_x0020_Type" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4013,6 +4017,28 @@
           <xsd:enumeration value="DHS"/>
           <xsd:enumeration value="MIS"/>
           <xsd:enumeration value="SPA"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="25" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="26" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
@@ -4201,7 +4227,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62B6F154-AA6F-48CC-85A4-FA5C859C4DE9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C4758C5-FCAE-469A-9877-4720F2D83107}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/DHS7tabplan/Tab_plan_Chap08_Infant_and_Child_Mortality_VII_5Sept2018.xlsx
+++ b/DHS7tabplan/Tab_plan_Chap08_Infant_and_Child_Mortality_VII_5Sept2018.xlsx
@@ -3926,7 +3926,7 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="481" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be21cae339529f0f311ef097f4a87693">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fe6dd6fbc47b2b2c3033f1a9c1079fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
@@ -4227,7 +4227,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C4758C5-FCAE-469A-9877-4720F2D83107}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD30345A-4D19-4BA6-9FD3-EBE22983054A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/DHS7tabplan/Tab_plan_Chap08_Infant_and_Child_Mortality_VII_5Sept2018.xlsx
+++ b/DHS7tabplan/Tab_plan_Chap08_Infant_and_Child_Mortality_VII_5Sept2018.xlsx
@@ -3926,8 +3926,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fe6dd6fbc47b2b2c3033f1a9c1079fd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee862ef0fc8dbdbaa6c7a8968b7b48f1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd4fdd4f38f705a4fbfd7d3200bf1970" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
@@ -4227,7 +4227,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD30345A-4D19-4BA6-9FD3-EBE22983054A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50818833-83A5-4EDD-BDC2-26F9BCEEB9F8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/DHS7tabplan/Tab_plan_Chap08_Infant_and_Child_Mortality_VII_5Sept2018.xlsx
+++ b/DHS7tabplan/Tab_plan_Chap08_Infant_and_Child_Mortality_VII_5Sept2018.xlsx
@@ -3926,8 +3926,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee862ef0fc8dbdbaa6c7a8968b7b48f1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd4fdd4f38f705a4fbfd7d3200bf1970" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="534" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a765ce11b89b42bcade51542d07405">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f7cf592af29221d7e264e507c9f7a8c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
@@ -3955,6 +3955,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4040,6 +4041,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4227,7 +4233,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50818833-83A5-4EDD-BDC2-26F9BCEEB9F8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8145FB-4411-4349-941B-E2831074789B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/DHS7tabplan/Tab_plan_Chap08_Infant_and_Child_Mortality_VII_5Sept2018.xlsx
+++ b/DHS7tabplan/Tab_plan_Chap08_Infant_and_Child_Mortality_VII_5Sept2018.xlsx
@@ -3926,11 +3926,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="534" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a765ce11b89b42bcade51542d07405">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f7cf592af29221d7e264e507c9f7a8c" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="537" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32af978db1d8a110ec558ab40ef27856">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" xmlns:ns4="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490a248aacda82af6307d667c2e14f68" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
+    <xsd:import namespace="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -3956,6 +3957,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4048,6 +4051,13 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="30" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6856f2ee-118d-42e8-91de-064c9a66b685" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d16efad5-0601-4cf0-b7c2-89968258c777" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4099,6 +4109,21 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="31" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9af71320-1412-4515-a0b2-dc1dac8ea18d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d16efad5-0601-4cf0-b7c2-89968258c777">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -4211,6 +4236,10 @@
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
@@ -4233,7 +4262,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8145FB-4411-4349-941B-E2831074789B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE025378-FBED-49FC-B80D-CF829394A80F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/DHS7tabplan/Tab_plan_Chap08_Infant_and_Child_Mortality_VII_5Sept2018.xlsx
+++ b/DHS7tabplan/Tab_plan_Chap08_Infant_and_Child_Mortality_VII_5Sept2018.xlsx
@@ -3926,8 +3926,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="537" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32af978db1d8a110ec558ab40ef27856">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" xmlns:ns4="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490a248aacda82af6307d667c2e14f68" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="538" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6540646240d2a9b5b61b602982a89a80">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" xmlns:ns4="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e277f2c3d1f94b9475019640a9a3dec" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
@@ -3959,6 +3959,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4057,6 +4058,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="32" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d16efad5-0601-4cf0-b7c2-89968258c777" elementFormDefault="qualified">
@@ -4262,7 +4268,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE025378-FBED-49FC-B80D-CF829394A80F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFAB0675-FE60-4977-9A75-B66DB065B03E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
